--- a/evaluation/evaluation-100.xlsx
+++ b/evaluation/evaluation-100.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/PycharmProjects/LLM-based/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A58156-8D1C-064C-B827-3E75C5BD95BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A0C8AE-3414-7E42-B550-D95AA1B0C9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eval-by-extraction for 8" sheetId="1" r:id="rId1"/>
@@ -341,7 +341,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -508,6 +508,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -515,7 +528,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -584,6 +597,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -15244,7 +15260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
@@ -15276,13 +15292,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -15386,10 +15402,10 @@
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="25">
         <v>1</v>
       </c>
       <c r="D2" s="9">
@@ -15493,10 +15509,10 @@
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="25">
         <v>1</v>
       </c>
       <c r="D3" s="9">
@@ -15600,10 +15616,10 @@
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="25">
         <v>1</v>
       </c>
       <c r="D4" s="9">
@@ -15707,10 +15723,10 @@
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="25">
         <v>1</v>
       </c>
       <c r="D5" s="9">
@@ -15814,10 +15830,10 @@
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="25">
         <v>1</v>
       </c>
       <c r="D6" s="9">
@@ -15921,10 +15937,10 @@
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="25">
         <v>1</v>
       </c>
       <c r="D7" s="9">
@@ -16028,10 +16044,10 @@
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="25">
         <v>1</v>
       </c>
       <c r="D8" s="9">
@@ -16135,10 +16151,10 @@
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="20">
         <v>1</v>
       </c>
       <c r="D9" s="11">
@@ -16239,36 +16255,21 @@
       </c>
     </row>
     <row r="10" spans="1:36">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
-      <c r="AA10" s="24"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="24"/>
       <c r="AF10" s="9"/>
       <c r="AG10" s="9"/>
       <c r="AH10" s="9"/>
@@ -16277,13 +16278,13 @@
     </row>
     <row r="12" spans="1:36" ht="18" thickBot="1"/>
     <row r="13" spans="1:36">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -16387,10 +16388,10 @@
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="25">
         <v>1</v>
       </c>
       <c r="D14" s="9">
@@ -16494,10 +16495,10 @@
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="25">
         <v>1</v>
       </c>
       <c r="D15" s="9">
@@ -16601,10 +16602,10 @@
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="25">
         <v>1</v>
       </c>
       <c r="D16" s="9">
@@ -16708,10 +16709,10 @@
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="25">
         <v>1</v>
       </c>
       <c r="D17" s="9">
@@ -16815,10 +16816,10 @@
       <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="25">
         <v>1</v>
       </c>
       <c r="D18" s="9">
@@ -16922,10 +16923,10 @@
       <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="25">
         <v>1</v>
       </c>
       <c r="D19" s="9">
@@ -17029,10 +17030,10 @@
       <c r="A20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="25">
         <v>1</v>
       </c>
       <c r="D20" s="9">
@@ -17136,10 +17137,10 @@
       <c r="A21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="20">
         <v>1</v>
       </c>
       <c r="D21" s="11">
@@ -17394,7 +17395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E6C364-198C-C84C-94F7-FDBD5C4A1241}">
   <dimension ref="A1:BJ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.5" defaultRowHeight="17"/>
   <cols>
@@ -20794,8 +20795,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E14:G21">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O2:Q9">
     <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14:Q21">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -20818,8 +20843,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Y14:AA21">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AI2:AK9">
     <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI14:AK21">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -20842,8 +20891,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF2:BJ9">
-    <cfRule type="colorScale" priority="23">
+  <conditionalFormatting sqref="AS14:AU21">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -20854,56 +20903,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:G21">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O14:Q21">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y14:AA21">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI14:AK21">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS14:AU21">
-    <cfRule type="colorScale" priority="32">
+  <conditionalFormatting sqref="BF2:BJ9">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -24979,8 +24980,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E14:G23">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O2:Q11">
     <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14:Q23">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -25003,8 +25028,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Y14:AA23">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AI2:AK11">
     <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI14:AK23">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -25027,8 +25076,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF2:BJ11">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="AS14:AU23">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -25039,56 +25088,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:G23">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O14:Q23">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y14:AA23">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI14:AK23">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS14:AU23">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="BF2:BJ11">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/evaluation/evaluation-100.xlsx
+++ b/evaluation/evaluation-100.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/PycharmProjects/LLM-based/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A0C8AE-3414-7E42-B550-D95AA1B0C9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DCCC2B-FF5A-AD48-BAC7-AD2C312276B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="eval-by-extraction for 8" sheetId="1" r:id="rId1"/>
-    <sheet name="eval-by-generation for 8" sheetId="4" r:id="rId2"/>
-    <sheet name="eval-by-generation for 10" sheetId="3" r:id="rId3"/>
-    <sheet name="eval-by-generation for 16" sheetId="2" r:id="rId4"/>
+    <sheet name="Eval KG-ext for 8" sheetId="1" r:id="rId1"/>
+    <sheet name="Eval KG-gen for 8" sheetId="4" r:id="rId2"/>
+    <sheet name="Eval KG-gen for 10" sheetId="3" r:id="rId3"/>
+    <sheet name="Eval KG-gen for 16" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -528,7 +528,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -601,9 +601,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -704,7 +701,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-extraction for 8'!$AE$2</c:f>
+              <c:f>'Eval KG-ext for 8'!$AE$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -725,7 +722,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-extraction for 8'!$AF$1:$AJ$1</c:f>
+              <c:f>'Eval KG-ext for 8'!$AF$1:$AJ$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -748,7 +745,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-extraction for 8'!$AF$2:$AJ$2</c:f>
+              <c:f>'Eval KG-ext for 8'!$AF$2:$AJ$2</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -781,7 +778,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-extraction for 8'!$AE$3</c:f>
+              <c:f>'Eval KG-ext for 8'!$AE$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -802,7 +799,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-extraction for 8'!$AF$1:$AJ$1</c:f>
+              <c:f>'Eval KG-ext for 8'!$AF$1:$AJ$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -825,7 +822,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-extraction for 8'!$AF$3:$AJ$3</c:f>
+              <c:f>'Eval KG-ext for 8'!$AF$3:$AJ$3</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -858,7 +855,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-extraction for 8'!$AE$4</c:f>
+              <c:f>'Eval KG-ext for 8'!$AE$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -879,7 +876,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-extraction for 8'!$AF$1:$AJ$1</c:f>
+              <c:f>'Eval KG-ext for 8'!$AF$1:$AJ$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -902,7 +899,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-extraction for 8'!$AF$4:$AJ$4</c:f>
+              <c:f>'Eval KG-ext for 8'!$AF$4:$AJ$4</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -935,7 +932,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-extraction for 8'!$AE$5</c:f>
+              <c:f>'Eval KG-ext for 8'!$AE$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -956,7 +953,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-extraction for 8'!$AF$1:$AJ$1</c:f>
+              <c:f>'Eval KG-ext for 8'!$AF$1:$AJ$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -979,7 +976,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-extraction for 8'!$AF$5:$AJ$5</c:f>
+              <c:f>'Eval KG-ext for 8'!$AF$5:$AJ$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1012,7 +1009,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-extraction for 8'!$AE$6</c:f>
+              <c:f>'Eval KG-ext for 8'!$AE$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1033,7 +1030,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-extraction for 8'!$AF$1:$AJ$1</c:f>
+              <c:f>'Eval KG-ext for 8'!$AF$1:$AJ$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1056,7 +1053,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-extraction for 8'!$AF$6:$AJ$6</c:f>
+              <c:f>'Eval KG-ext for 8'!$AF$6:$AJ$6</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1089,7 +1086,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-extraction for 8'!$AE$7</c:f>
+              <c:f>'Eval KG-ext for 8'!$AE$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1110,7 +1107,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-extraction for 8'!$AF$1:$AJ$1</c:f>
+              <c:f>'Eval KG-ext for 8'!$AF$1:$AJ$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1133,7 +1130,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-extraction for 8'!$AF$7:$AJ$7</c:f>
+              <c:f>'Eval KG-ext for 8'!$AF$7:$AJ$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1166,7 +1163,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-extraction for 8'!$AE$8</c:f>
+              <c:f>'Eval KG-ext for 8'!$AE$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1189,7 +1186,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-extraction for 8'!$AF$1:$AJ$1</c:f>
+              <c:f>'Eval KG-ext for 8'!$AF$1:$AJ$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1212,7 +1209,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-extraction for 8'!$AF$8:$AJ$8</c:f>
+              <c:f>'Eval KG-ext for 8'!$AF$8:$AJ$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1245,7 +1242,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-extraction for 8'!$AE$9</c:f>
+              <c:f>'Eval KG-ext for 8'!$AE$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1268,7 +1265,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-extraction for 8'!$AF$1:$AJ$1</c:f>
+              <c:f>'Eval KG-ext for 8'!$AF$1:$AJ$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1291,7 +1288,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-extraction for 8'!$AF$9:$AJ$9</c:f>
+              <c:f>'Eval KG-ext for 8'!$AF$9:$AJ$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1685,7 +1682,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-extraction for 8'!$AE$14</c:f>
+              <c:f>'Eval KG-ext for 8'!$AE$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1706,7 +1703,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-extraction for 8'!$AF$13:$AJ$13</c:f>
+              <c:f>'Eval KG-ext for 8'!$AF$13:$AJ$13</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1729,7 +1726,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-extraction for 8'!$AF$14:$AJ$14</c:f>
+              <c:f>'Eval KG-ext for 8'!$AF$14:$AJ$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1762,7 +1759,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-extraction for 8'!$AE$15</c:f>
+              <c:f>'Eval KG-ext for 8'!$AE$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1783,7 +1780,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-extraction for 8'!$AF$13:$AJ$13</c:f>
+              <c:f>'Eval KG-ext for 8'!$AF$13:$AJ$13</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1806,7 +1803,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-extraction for 8'!$AF$15:$AJ$15</c:f>
+              <c:f>'Eval KG-ext for 8'!$AF$15:$AJ$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1839,7 +1836,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-extraction for 8'!$AE$16</c:f>
+              <c:f>'Eval KG-ext for 8'!$AE$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1860,7 +1857,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-extraction for 8'!$AF$13:$AJ$13</c:f>
+              <c:f>'Eval KG-ext for 8'!$AF$13:$AJ$13</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1883,7 +1880,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-extraction for 8'!$AF$16:$AJ$16</c:f>
+              <c:f>'Eval KG-ext for 8'!$AF$16:$AJ$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1916,7 +1913,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-extraction for 8'!$AE$17</c:f>
+              <c:f>'Eval KG-ext for 8'!$AE$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1937,7 +1934,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-extraction for 8'!$AF$13:$AJ$13</c:f>
+              <c:f>'Eval KG-ext for 8'!$AF$13:$AJ$13</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1960,7 +1957,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-extraction for 8'!$AF$17:$AJ$17</c:f>
+              <c:f>'Eval KG-ext for 8'!$AF$17:$AJ$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1993,7 +1990,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-extraction for 8'!$AE$18</c:f>
+              <c:f>'Eval KG-ext for 8'!$AE$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2014,7 +2011,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-extraction for 8'!$AF$13:$AJ$13</c:f>
+              <c:f>'Eval KG-ext for 8'!$AF$13:$AJ$13</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2037,7 +2034,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-extraction for 8'!$AF$18:$AJ$18</c:f>
+              <c:f>'Eval KG-ext for 8'!$AF$18:$AJ$18</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2070,7 +2067,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-extraction for 8'!$AE$19</c:f>
+              <c:f>'Eval KG-ext for 8'!$AE$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2091,7 +2088,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-extraction for 8'!$AF$13:$AJ$13</c:f>
+              <c:f>'Eval KG-ext for 8'!$AF$13:$AJ$13</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2114,7 +2111,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-extraction for 8'!$AF$19:$AJ$19</c:f>
+              <c:f>'Eval KG-ext for 8'!$AF$19:$AJ$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2147,7 +2144,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-extraction for 8'!$AE$20</c:f>
+              <c:f>'Eval KG-ext for 8'!$AE$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2170,7 +2167,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-extraction for 8'!$AF$13:$AJ$13</c:f>
+              <c:f>'Eval KG-ext for 8'!$AF$13:$AJ$13</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2193,7 +2190,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-extraction for 8'!$AF$20:$AJ$20</c:f>
+              <c:f>'Eval KG-ext for 8'!$AF$20:$AJ$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2226,7 +2223,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-extraction for 8'!$AE$21</c:f>
+              <c:f>'Eval KG-ext for 8'!$AE$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2249,7 +2246,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-extraction for 8'!$AF$13:$AJ$13</c:f>
+              <c:f>'Eval KG-ext for 8'!$AF$13:$AJ$13</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2272,7 +2269,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-extraction for 8'!$AF$21:$AJ$21</c:f>
+              <c:f>'Eval KG-ext for 8'!$AF$21:$AJ$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2666,7 +2663,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 8'!$BE$2</c:f>
+              <c:f>'Eval KG-gen for 8'!$BE$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2687,7 +2684,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 8'!$BF$1:$BJ$1</c:f>
+              <c:f>'Eval KG-gen for 8'!$BF$1:$BJ$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2710,7 +2707,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 8'!$BF$2:$BJ$2</c:f>
+              <c:f>'Eval KG-gen for 8'!$BF$2:$BJ$2</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2743,7 +2740,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 8'!$BE$3</c:f>
+              <c:f>'Eval KG-gen for 8'!$BE$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2764,7 +2761,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 8'!$BF$1:$BJ$1</c:f>
+              <c:f>'Eval KG-gen for 8'!$BF$1:$BJ$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2787,7 +2784,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 8'!$BF$3:$BJ$3</c:f>
+              <c:f>'Eval KG-gen for 8'!$BF$3:$BJ$3</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2820,7 +2817,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 8'!$BE$4</c:f>
+              <c:f>'Eval KG-gen for 8'!$BE$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2841,7 +2838,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 8'!$BF$1:$BJ$1</c:f>
+              <c:f>'Eval KG-gen for 8'!$BF$1:$BJ$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2864,7 +2861,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 8'!$BF$4:$BJ$4</c:f>
+              <c:f>'Eval KG-gen for 8'!$BF$4:$BJ$4</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2897,7 +2894,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 8'!$BE$5</c:f>
+              <c:f>'Eval KG-gen for 8'!$BE$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2918,7 +2915,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 8'!$BF$1:$BJ$1</c:f>
+              <c:f>'Eval KG-gen for 8'!$BF$1:$BJ$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2941,7 +2938,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 8'!$BF$5:$BJ$5</c:f>
+              <c:f>'Eval KG-gen for 8'!$BF$5:$BJ$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2974,7 +2971,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 8'!$BE$6</c:f>
+              <c:f>'Eval KG-gen for 8'!$BE$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2995,7 +2992,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 8'!$BF$1:$BJ$1</c:f>
+              <c:f>'Eval KG-gen for 8'!$BF$1:$BJ$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3018,7 +3015,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 8'!$BF$6:$BJ$6</c:f>
+              <c:f>'Eval KG-gen for 8'!$BF$6:$BJ$6</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3051,7 +3048,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 8'!$BE$7</c:f>
+              <c:f>'Eval KG-gen for 8'!$BE$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3072,7 +3069,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 8'!$BF$1:$BJ$1</c:f>
+              <c:f>'Eval KG-gen for 8'!$BF$1:$BJ$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3095,7 +3092,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 8'!$BF$7:$BJ$7</c:f>
+              <c:f>'Eval KG-gen for 8'!$BF$7:$BJ$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3128,7 +3125,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 8'!$BE$8</c:f>
+              <c:f>'Eval KG-gen for 8'!$BE$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3151,7 +3148,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 8'!$BF$1:$BJ$1</c:f>
+              <c:f>'Eval KG-gen for 8'!$BF$1:$BJ$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3174,7 +3171,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 8'!$BF$8:$BJ$8</c:f>
+              <c:f>'Eval KG-gen for 8'!$BF$8:$BJ$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3207,7 +3204,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 8'!$BE$9</c:f>
+              <c:f>'Eval KG-gen for 8'!$BE$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3230,7 +3227,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 8'!$BF$1:$BJ$1</c:f>
+              <c:f>'Eval KG-gen for 8'!$BF$1:$BJ$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3253,7 +3250,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 8'!$BF$9:$BJ$9</c:f>
+              <c:f>'Eval KG-gen for 8'!$BF$9:$BJ$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3655,7 +3652,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 8'!$BE$14</c:f>
+              <c:f>'Eval KG-gen for 8'!$BE$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3676,7 +3673,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 8'!$BF$13:$BJ$13</c:f>
+              <c:f>'Eval KG-gen for 8'!$BF$13:$BJ$13</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3699,7 +3696,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 8'!$BF$14:$BJ$14</c:f>
+              <c:f>'Eval KG-gen for 8'!$BF$14:$BJ$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3732,7 +3729,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 8'!$BE$15</c:f>
+              <c:f>'Eval KG-gen for 8'!$BE$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3753,7 +3750,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 8'!$BF$13:$BJ$13</c:f>
+              <c:f>'Eval KG-gen for 8'!$BF$13:$BJ$13</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3776,7 +3773,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 8'!$BF$15:$BJ$15</c:f>
+              <c:f>'Eval KG-gen for 8'!$BF$15:$BJ$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3809,7 +3806,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 8'!$BE$16</c:f>
+              <c:f>'Eval KG-gen for 8'!$BE$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3830,7 +3827,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 8'!$BF$13:$BJ$13</c:f>
+              <c:f>'Eval KG-gen for 8'!$BF$13:$BJ$13</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3853,7 +3850,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 8'!$BF$16:$BJ$16</c:f>
+              <c:f>'Eval KG-gen for 8'!$BF$16:$BJ$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3886,7 +3883,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 8'!$BE$17</c:f>
+              <c:f>'Eval KG-gen for 8'!$BE$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3907,7 +3904,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 8'!$BF$13:$BJ$13</c:f>
+              <c:f>'Eval KG-gen for 8'!$BF$13:$BJ$13</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3930,7 +3927,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 8'!$BF$17:$BJ$17</c:f>
+              <c:f>'Eval KG-gen for 8'!$BF$17:$BJ$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3963,7 +3960,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 8'!$BE$18</c:f>
+              <c:f>'Eval KG-gen for 8'!$BE$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3984,7 +3981,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 8'!$BF$13:$BJ$13</c:f>
+              <c:f>'Eval KG-gen for 8'!$BF$13:$BJ$13</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4007,7 +4004,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 8'!$BF$18:$BJ$18</c:f>
+              <c:f>'Eval KG-gen for 8'!$BF$18:$BJ$18</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4040,7 +4037,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 8'!$BE$19</c:f>
+              <c:f>'Eval KG-gen for 8'!$BE$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4061,7 +4058,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 8'!$BF$13:$BJ$13</c:f>
+              <c:f>'Eval KG-gen for 8'!$BF$13:$BJ$13</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4084,7 +4081,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 8'!$BF$19:$BJ$19</c:f>
+              <c:f>'Eval KG-gen for 8'!$BF$19:$BJ$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4117,7 +4114,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 8'!$BE$20</c:f>
+              <c:f>'Eval KG-gen for 8'!$BE$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4140,7 +4137,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 8'!$BF$13:$BJ$13</c:f>
+              <c:f>'Eval KG-gen for 8'!$BF$13:$BJ$13</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4163,7 +4160,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 8'!$BF$20:$BJ$20</c:f>
+              <c:f>'Eval KG-gen for 8'!$BF$20:$BJ$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4196,7 +4193,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 8'!$BE$21</c:f>
+              <c:f>'Eval KG-gen for 8'!$BE$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4219,7 +4216,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 8'!$BF$13:$BJ$13</c:f>
+              <c:f>'Eval KG-gen for 8'!$BF$13:$BJ$13</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4242,7 +4239,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 8'!$BF$21:$BJ$21</c:f>
+              <c:f>'Eval KG-gen for 8'!$BF$21:$BJ$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4644,7 +4641,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BE$2</c:f>
+              <c:f>'Eval KG-gen for 10'!$BE$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4665,7 +4662,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BF$1:$BJ$1</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$1:$BJ$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4688,7 +4685,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 10'!$BF$2:$BJ$2</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$2:$BJ$2</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4721,7 +4718,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BE$3</c:f>
+              <c:f>'Eval KG-gen for 10'!$BE$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4742,7 +4739,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BF$1:$BJ$1</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$1:$BJ$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4765,7 +4762,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 10'!$BF$3:$BJ$3</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$3:$BJ$3</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4798,7 +4795,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BE$4</c:f>
+              <c:f>'Eval KG-gen for 10'!$BE$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4819,7 +4816,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BF$1:$BJ$1</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$1:$BJ$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4842,7 +4839,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 10'!$BF$4:$BJ$4</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$4:$BJ$4</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4875,7 +4872,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BE$5</c:f>
+              <c:f>'Eval KG-gen for 10'!$BE$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4896,7 +4893,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BF$1:$BJ$1</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$1:$BJ$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4919,7 +4916,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 10'!$BF$5:$BJ$5</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$5:$BJ$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4952,7 +4949,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BE$6</c:f>
+              <c:f>'Eval KG-gen for 10'!$BE$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4973,7 +4970,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BF$1:$BJ$1</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$1:$BJ$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4996,7 +4993,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 10'!$BF$6:$BJ$6</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$6:$BJ$6</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5023,7 +5020,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BE$7</c:f>
+              <c:f>'Eval KG-gen for 10'!$BE$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5044,7 +5041,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BF$1:$BJ$1</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$1:$BJ$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -5067,7 +5064,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 10'!$BF$7:$BJ$7</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$7:$BJ$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5094,7 +5091,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BE$8</c:f>
+              <c:f>'Eval KG-gen for 10'!$BE$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5117,7 +5114,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BF$1:$BJ$1</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$1:$BJ$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -5140,7 +5137,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 10'!$BF$8:$BJ$8</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$8:$BJ$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5173,7 +5170,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BE$9</c:f>
+              <c:f>'Eval KG-gen for 10'!$BE$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5196,7 +5193,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BF$1:$BJ$1</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$1:$BJ$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -5219,7 +5216,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 10'!$BF$9:$BJ$9</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$9:$BJ$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5252,7 +5249,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BE$10</c:f>
+              <c:f>'Eval KG-gen for 10'!$BE$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5275,7 +5272,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BF$1:$BJ$1</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$1:$BJ$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -5298,7 +5295,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 10'!$BF$10:$BJ$10</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$10:$BJ$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5331,7 +5328,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BE$11</c:f>
+              <c:f>'Eval KG-gen for 10'!$BE$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5354,7 +5351,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BF$1:$BJ$1</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$1:$BJ$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -5377,7 +5374,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 10'!$BF$11:$BJ$11</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$11:$BJ$11</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5508,7 +5505,7 @@
         <c:title>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$F$1</c:f>
+              <c:f>'Eval KG-gen for 10'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5764,7 +5761,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BE$14</c:f>
+              <c:f>'Eval KG-gen for 10'!$BE$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5785,7 +5782,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BF$13:$BJ$13</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$13:$BJ$13</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -5808,7 +5805,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 10'!$BF$14:$BJ$14</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$14:$BJ$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5841,7 +5838,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BE$15</c:f>
+              <c:f>'Eval KG-gen for 10'!$BE$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5862,7 +5859,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BF$13:$BJ$13</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$13:$BJ$13</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -5885,7 +5882,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 10'!$BF$15:$BJ$15</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$15:$BJ$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5918,7 +5915,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BE$16</c:f>
+              <c:f>'Eval KG-gen for 10'!$BE$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5939,7 +5936,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BF$13:$BJ$13</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$13:$BJ$13</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -5962,7 +5959,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 10'!$BF$16:$BJ$16</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$16:$BJ$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5995,7 +5992,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BE$17</c:f>
+              <c:f>'Eval KG-gen for 10'!$BE$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6016,7 +6013,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BF$13:$BJ$13</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$13:$BJ$13</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -6039,7 +6036,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 10'!$BF$17:$BJ$17</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$17:$BJ$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6072,7 +6069,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BE$18</c:f>
+              <c:f>'Eval KG-gen for 10'!$BE$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6093,7 +6090,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BF$13:$BJ$13</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$13:$BJ$13</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -6116,7 +6113,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 10'!$BF$18:$BJ$18</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$18:$BJ$18</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6137,7 +6134,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BE$19</c:f>
+              <c:f>'Eval KG-gen for 10'!$BE$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6158,7 +6155,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BF$13:$BJ$13</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$13:$BJ$13</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -6181,7 +6178,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 10'!$BF$19:$BJ$19</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$19:$BJ$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6202,7 +6199,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BE$20</c:f>
+              <c:f>'Eval KG-gen for 10'!$BE$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6225,7 +6222,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BF$13:$BJ$13</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$13:$BJ$13</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -6248,7 +6245,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 10'!$BF$20:$BJ$20</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$20:$BJ$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6281,7 +6278,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BE$21</c:f>
+              <c:f>'Eval KG-gen for 10'!$BE$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6304,7 +6301,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BF$13:$BJ$13</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$13:$BJ$13</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -6327,7 +6324,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 10'!$BF$21:$BJ$21</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$21:$BJ$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6360,7 +6357,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BE$22</c:f>
+              <c:f>'Eval KG-gen for 10'!$BE$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6383,7 +6380,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BF$13:$BJ$13</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$13:$BJ$13</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -6406,7 +6403,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 10'!$BF$22:$BJ$22</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$22:$BJ$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6439,7 +6436,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BE$23</c:f>
+              <c:f>'Eval KG-gen for 10'!$BE$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6462,7 +6459,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$BF$13:$BJ$13</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$13:$BJ$13</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -6485,7 +6482,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 10'!$BF$23:$BJ$23</c:f>
+              <c:f>'Eval KG-gen for 10'!$BF$23:$BJ$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6616,7 +6613,7 @@
         <c:title>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 10'!$F$1</c:f>
+              <c:f>'Eval KG-gen for 10'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6872,7 +6869,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BF$2</c:f>
+              <c:f>'Eval KG-gen for 16'!$BF$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6893,7 +6890,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BG$1:$BK$1</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$1:$BK$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -6916,7 +6913,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 16'!$BG$2:$BK$2</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$2:$BK$2</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6949,7 +6946,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BF$3</c:f>
+              <c:f>'Eval KG-gen for 16'!$BF$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6970,7 +6967,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BG$1:$BK$1</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$1:$BK$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -6993,7 +6990,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 16'!$BG$3:$BK$3</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$3:$BK$3</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7026,7 +7023,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BF$4</c:f>
+              <c:f>'Eval KG-gen for 16'!$BF$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7047,7 +7044,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BG$1:$BK$1</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$1:$BK$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -7070,7 +7067,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 16'!$BG$4:$BK$4</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$4:$BK$4</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7103,7 +7100,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BF$5</c:f>
+              <c:f>'Eval KG-gen for 16'!$BF$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7124,7 +7121,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BG$1:$BK$1</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$1:$BK$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -7147,7 +7144,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 16'!$BG$5:$BK$5</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$5:$BK$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7180,7 +7177,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BF$6</c:f>
+              <c:f>'Eval KG-gen for 16'!$BF$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7201,7 +7198,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BG$1:$BK$1</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$1:$BK$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -7224,7 +7221,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 16'!$BG$6:$BK$6</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$6:$BK$6</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7257,7 +7254,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BF$7</c:f>
+              <c:f>'Eval KG-gen for 16'!$BF$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7278,7 +7275,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BG$1:$BK$1</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$1:$BK$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -7301,7 +7298,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 16'!$BG$7:$BK$7</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$7:$BK$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7334,7 +7331,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BF$8</c:f>
+              <c:f>'Eval KG-gen for 16'!$BF$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7357,7 +7354,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BG$1:$BK$1</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$1:$BK$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -7380,7 +7377,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 16'!$BG$8:$BK$8</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$8:$BK$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7413,7 +7410,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BF$9</c:f>
+              <c:f>'Eval KG-gen for 16'!$BF$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7436,7 +7433,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BG$1:$BK$1</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$1:$BK$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -7459,7 +7456,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 16'!$BG$9:$BK$9</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$9:$BK$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7486,7 +7483,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BF$10</c:f>
+              <c:f>'Eval KG-gen for 16'!$BF$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7509,7 +7506,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BG$1:$BK$1</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$1:$BK$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -7532,7 +7529,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 16'!$BG$10:$BK$10</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$10:$BK$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7559,7 +7556,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BF$11</c:f>
+              <c:f>'Eval KG-gen for 16'!$BF$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7582,7 +7579,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BG$1:$BK$1</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$1:$BK$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -7605,7 +7602,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 16'!$BG$11:$BK$11</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$11:$BK$11</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7632,7 +7629,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BF$12</c:f>
+              <c:f>'Eval KG-gen for 16'!$BF$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7655,7 +7652,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BG$1:$BK$1</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$1:$BK$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -7678,7 +7675,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 16'!$BG$12:$BK$12</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$12:$BK$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7705,7 +7702,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BF$13</c:f>
+              <c:f>'Eval KG-gen for 16'!$BF$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7728,7 +7725,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BG$1:$BK$1</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$1:$BK$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -7751,7 +7748,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 16'!$BG$13:$BK$13</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$13:$BK$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7784,7 +7781,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BF$14</c:f>
+              <c:f>'Eval KG-gen for 16'!$BF$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7808,7 +7805,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BG$1:$BK$1</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$1:$BK$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -7831,7 +7828,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 16'!$BG$14:$BK$14</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$14:$BK$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7864,7 +7861,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BF$15</c:f>
+              <c:f>'Eval KG-gen for 16'!$BF$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7888,7 +7885,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BG$1:$BK$1</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$1:$BK$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -7911,7 +7908,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 16'!$BG$15:$BK$15</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$15:$BK$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7944,7 +7941,7 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BF$16</c:f>
+              <c:f>'Eval KG-gen for 16'!$BF$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7968,7 +7965,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BG$1:$BK$1</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$1:$BK$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -7991,7 +7988,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 16'!$BG$16:$BK$16</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$16:$BK$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -8024,7 +8021,7 @@
           <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BF$17</c:f>
+              <c:f>'Eval KG-gen for 16'!$BF$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8048,7 +8045,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BG$1:$BK$1</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$1:$BK$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -8071,7 +8068,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 16'!$BG$17:$BK$17</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$17:$BK$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -8202,7 +8199,7 @@
         <c:title>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$F$1</c:f>
+              <c:f>'Eval KG-gen for 16'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8458,7 +8455,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BF$20</c:f>
+              <c:f>'Eval KG-gen for 16'!$BF$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8479,7 +8476,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BG$19:$BK$19</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$19:$BK$19</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -8502,7 +8499,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 16'!$BG$20:$BK$20</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$20:$BK$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -8535,7 +8532,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BF$21</c:f>
+              <c:f>'Eval KG-gen for 16'!$BF$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8556,7 +8553,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BG$19:$BK$19</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$19:$BK$19</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -8579,7 +8576,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 16'!$BG$21:$BK$21</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$21:$BK$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -8612,7 +8609,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BF$22</c:f>
+              <c:f>'Eval KG-gen for 16'!$BF$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8633,7 +8630,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BG$19:$BK$19</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$19:$BK$19</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -8656,7 +8653,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 16'!$BG$22:$BK$22</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$22:$BK$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -8689,7 +8686,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BF$23</c:f>
+              <c:f>'Eval KG-gen for 16'!$BF$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8710,7 +8707,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BG$19:$BK$19</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$19:$BK$19</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -8733,7 +8730,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 16'!$BG$23:$BK$23</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$23:$BK$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -8766,7 +8763,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BF$24</c:f>
+              <c:f>'Eval KG-gen for 16'!$BF$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8787,7 +8784,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BG$19:$BK$19</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$19:$BK$19</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -8810,7 +8807,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 16'!$BG$24:$BK$24</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$24:$BK$24</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -8843,7 +8840,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BF$25</c:f>
+              <c:f>'Eval KG-gen for 16'!$BF$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8864,7 +8861,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BG$19:$BK$19</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$19:$BK$19</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -8887,7 +8884,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 16'!$BG$25:$BK$25</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$25:$BK$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -8920,7 +8917,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BF$26</c:f>
+              <c:f>'Eval KG-gen for 16'!$BF$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8943,7 +8940,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BG$19:$BK$19</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$19:$BK$19</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -8966,7 +8963,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 16'!$BG$26:$BK$26</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$26:$BK$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -8999,7 +8996,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BF$27</c:f>
+              <c:f>'Eval KG-gen for 16'!$BF$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9022,7 +9019,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BG$19:$BK$19</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$19:$BK$19</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -9045,7 +9042,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 16'!$BG$27:$BK$27</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$27:$BK$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -9066,7 +9063,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BF$28</c:f>
+              <c:f>'Eval KG-gen for 16'!$BF$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9089,7 +9086,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BG$19:$BK$19</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$19:$BK$19</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -9112,7 +9109,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 16'!$BG$28:$BK$28</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$28:$BK$28</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -9133,7 +9130,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BF$29</c:f>
+              <c:f>'Eval KG-gen for 16'!$BF$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9156,7 +9153,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BG$19:$BK$19</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$19:$BK$19</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -9179,7 +9176,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 16'!$BG$29:$BK$29</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$29:$BK$29</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -9200,7 +9197,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BF$30</c:f>
+              <c:f>'Eval KG-gen for 16'!$BF$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9223,7 +9220,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BG$19:$BK$19</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$19:$BK$19</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -9246,7 +9243,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 16'!$BG$30:$BK$30</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$30:$BK$30</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -9267,7 +9264,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BF$31</c:f>
+              <c:f>'Eval KG-gen for 16'!$BF$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9290,7 +9287,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BG$19:$BK$19</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$19:$BK$19</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -9313,7 +9310,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 16'!$BG$31:$BK$31</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$31:$BK$31</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -9346,7 +9343,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BF$32</c:f>
+              <c:f>'Eval KG-gen for 16'!$BF$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9370,7 +9367,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BG$19:$BK$19</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$19:$BK$19</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -9393,7 +9390,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 16'!$BG$32:$BK$32</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$32:$BK$32</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -9426,7 +9423,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BF$33</c:f>
+              <c:f>'Eval KG-gen for 16'!$BF$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9450,7 +9447,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BG$19:$BK$19</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$19:$BK$19</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -9473,7 +9470,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 16'!$BG$33:$BK$33</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$33:$BK$33</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -9506,7 +9503,7 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BF$34</c:f>
+              <c:f>'Eval KG-gen for 16'!$BF$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9530,7 +9527,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BG$19:$BK$19</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$19:$BK$19</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -9553,7 +9550,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 16'!$BG$34:$BK$34</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$34:$BK$34</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -9586,7 +9583,7 @@
           <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BF$35</c:f>
+              <c:f>'Eval KG-gen for 16'!$BF$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9610,7 +9607,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$BG$19:$BK$19</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$19:$BK$19</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -9633,7 +9630,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eval-by-generation for 16'!$BG$35:$BK$35</c:f>
+              <c:f>'Eval KG-gen for 16'!$BG$35:$BK$35</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -9763,7 +9760,7 @@
         <c:title>
           <c:tx>
             <c:strRef>
-              <c:f>'eval-by-generation for 16'!$F$1</c:f>
+              <c:f>'Eval KG-gen for 16'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15260,7 +15257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
@@ -15405,7 +15402,7 @@
       <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="9">
@@ -15512,7 +15509,7 @@
       <c r="B3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="9">
@@ -15619,7 +15616,7 @@
       <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="9">
@@ -15726,7 +15723,7 @@
       <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="9">
@@ -15833,7 +15830,7 @@
       <c r="B6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="9">
@@ -15940,7 +15937,7 @@
       <c r="B7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="9">
@@ -16047,7 +16044,7 @@
       <c r="B8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="9">
@@ -16391,7 +16388,7 @@
       <c r="B14" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="9">
@@ -16498,7 +16495,7 @@
       <c r="B15" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="9">
@@ -16605,7 +16602,7 @@
       <c r="B16" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="9">
@@ -16712,7 +16709,7 @@
       <c r="B17" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="9">
@@ -16819,7 +16816,7 @@
       <c r="B18" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="9">
@@ -16926,7 +16923,7 @@
       <c r="B19" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" s="9">
@@ -17033,7 +17030,7 @@
       <c r="B20" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" s="9">
@@ -25121,7 +25118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E63229-D392-5041-8CC7-8C5879EDDE8E}">
   <dimension ref="A1:BK35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.5" defaultRowHeight="17"/>
   <cols>
